--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -357,20 +362,20 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Program</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Course_New</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_J4</t>
+    <t>Feldman_Product_TOC_Program_K2</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course_K2_New</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_K4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,21 +749,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -778,7 +783,7 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -786,7 +791,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -794,7 +799,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -802,7 +807,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -810,7 +815,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -818,13 +823,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -832,7 +837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -840,7 +845,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -848,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -856,7 +861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -864,7 +869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,7 +919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -938,7 +943,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -962,7 +967,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -987,7 +992,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1008,7 +1013,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1029,7 +1034,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1050,7 +1055,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1071,7 +1076,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1092,7 +1097,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1113,7 +1118,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1134,7 +1139,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1153,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1172,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1193,7 +1198,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1214,7 +1219,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1235,7 +1240,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1256,7 +1261,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1277,7 +1282,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1298,7 +1303,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1319,7 +1324,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1340,7 +1345,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1361,7 +1366,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1382,7 +1387,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1403,7 +1408,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1424,7 +1429,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1443,7 +1448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1464,7 +1469,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1485,7 +1490,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1506,7 +1511,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1527,7 +1532,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1548,7 +1553,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1569,7 +1574,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1590,7 +1595,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1611,7 +1616,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1632,7 +1637,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1653,7 +1658,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1674,7 +1679,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1695,7 +1700,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1716,7 +1721,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1737,7 +1742,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1758,7 +1763,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1779,7 +1784,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1800,7 +1805,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1821,7 +1826,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1842,7 +1847,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1863,7 +1868,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1884,7 +1889,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1905,7 +1910,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1926,7 +1931,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1947,7 +1952,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1968,7 +1973,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1989,7 +1994,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2010,7 +2015,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2029,7 +2034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2050,7 +2055,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2071,7 +2076,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2092,7 +2097,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2113,7 +2118,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2134,7 +2139,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2155,7 +2160,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2176,7 +2181,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2197,7 +2202,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2218,7 +2223,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2239,7 +2244,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2260,7 +2265,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2281,7 +2286,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2302,7 +2307,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2323,7 +2328,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2339,7 +2344,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2355,7 +2360,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2371,7 +2376,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2392,7 +2397,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2408,7 +2413,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2424,7 +2429,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2440,7 +2445,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2461,7 +2466,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2477,7 +2482,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2493,7 +2498,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2509,7 +2514,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2530,7 +2535,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4">
         <v>3</v>
       </c>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -362,20 +357,20 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Program_K2</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Course_K2_New</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_K4</t>
+    <t>Feldman_Product_TOC_Program</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course_New</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_J4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,21 +744,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -783,7 +778,7 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -791,7 +786,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -799,7 +794,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -807,7 +802,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -815,7 +810,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -823,13 +818,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -837,7 +832,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -845,7 +840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -853,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -861,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -869,7 +864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,7 +914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -943,7 +938,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -967,7 +962,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -992,7 +987,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1013,7 +1008,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1034,7 +1029,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1055,7 +1050,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1076,7 +1071,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1097,7 +1092,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1118,7 +1113,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1139,7 +1134,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1158,7 +1153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1177,7 +1172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1198,7 +1193,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1219,7 +1214,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1240,7 +1235,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1261,7 +1256,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1282,7 +1277,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1303,7 +1298,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1324,7 +1319,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1345,7 +1340,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1366,7 +1361,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1387,7 +1382,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1408,7 +1403,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1429,7 +1424,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1448,7 +1443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1469,7 +1464,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1490,7 +1485,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1511,7 +1506,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1532,7 +1527,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1553,7 +1548,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1574,7 +1569,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1595,7 +1590,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1616,7 +1611,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1637,7 +1632,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1658,7 +1653,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1679,7 +1674,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1700,7 +1695,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1721,7 +1716,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1742,7 +1737,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1763,7 +1758,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1784,7 +1779,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1805,7 +1800,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1826,7 +1821,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1847,7 +1842,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1868,7 +1863,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1889,7 +1884,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1910,7 +1905,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1931,7 +1926,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1952,7 +1947,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1973,7 +1968,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1994,7 +1989,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2015,7 +2010,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2034,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2055,7 +2050,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2076,7 +2071,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2097,7 +2092,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2118,7 +2113,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2139,7 +2134,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2160,7 +2155,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2181,7 +2176,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2202,7 +2197,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2223,7 +2218,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2244,7 +2239,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2265,7 +2260,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2286,7 +2281,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2307,7 +2302,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2328,7 +2323,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2344,7 +2339,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2360,7 +2355,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2376,7 +2371,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2397,7 +2392,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2413,7 +2408,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2429,7 +2424,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2445,7 +2440,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2466,7 +2461,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2482,7 +2477,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2498,7 +2493,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2514,7 +2509,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2535,7 +2530,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="4">
         <v>3</v>
       </c>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="114">
   <si>
     <t>Program Title</t>
   </si>
@@ -351,26 +356,23 @@
     <t>1</t>
   </si>
   <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_Program</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_Course_New</t>
-  </si>
-  <si>
-    <t>Feldman_Product_TOC_J4</t>
+    <t>Feldman_Product_TOC_ppe4</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Program_1</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_Course_1_New</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,7 +534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -567,7 +569,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -744,21 +746,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -778,7 +780,7 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -786,7 +788,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -794,37 +796,35 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -840,7 +840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -864,7 +864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,7 +914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -938,7 +938,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -962,7 +962,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -987,7 +987,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1008,7 +1008,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1029,7 +1029,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1050,7 +1050,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1071,7 +1071,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1092,7 +1092,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1113,7 +1113,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1134,7 +1134,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1172,7 +1172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1193,7 +1193,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1214,7 +1214,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1235,7 +1235,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1256,7 +1256,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1277,7 +1277,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1298,7 +1298,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1319,7 +1319,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1340,7 +1340,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1361,7 +1361,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1382,7 +1382,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1403,7 +1403,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1424,7 +1424,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1443,7 +1443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1464,7 +1464,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1485,7 +1485,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1506,7 +1506,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1527,7 +1527,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1548,7 +1548,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1569,7 +1569,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1590,7 +1590,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1611,7 +1611,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1632,7 +1632,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1653,7 +1653,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1674,7 +1674,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1695,7 +1695,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1716,7 +1716,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1737,7 +1737,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1758,7 +1758,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1779,7 +1779,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1800,7 +1800,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1821,7 +1821,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1842,7 +1842,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1863,7 +1863,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1884,7 +1884,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1905,7 +1905,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1926,7 +1926,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1947,7 +1947,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1968,7 +1968,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1989,7 +1989,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2010,7 +2010,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2029,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2050,7 +2050,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2071,7 +2071,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2092,7 +2092,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2113,7 +2113,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2134,7 +2134,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2155,7 +2155,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2176,7 +2176,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2197,7 +2197,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2218,7 +2218,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2239,7 +2239,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2260,7 +2260,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2281,7 +2281,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2302,7 +2302,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2323,7 +2323,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2339,7 +2339,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2355,7 +2355,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2392,7 +2392,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2461,7 +2461,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2530,7 +2530,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="4">
         <v>3</v>
       </c>

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/igestion_usecase_4/Product_TOC_Ingestion_NoAlignUsecase-4.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\igestion_usecase_4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5820" tabRatio="454"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -359,20 +354,20 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>Feldman_Product_TOC_ppe4</t>
-  </si>
-  <si>
     <t>Feldman_Product_TOC_Program_1</t>
   </si>
   <si>
     <t>Feldman_Product_TOC_Course_1_New</t>
+  </si>
+  <si>
+    <t>Feldman_Product_TOC_25Feb-4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -569,7 +564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -746,21 +741,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
@@ -780,37 +775,37 @@
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -818,13 +813,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -832,7 +827,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -840,7 +835,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -848,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -856,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -864,7 +859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -914,7 +909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -938,7 +933,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -962,7 +957,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -987,7 +982,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
@@ -1008,7 +1003,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1029,7 +1024,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1050,7 +1045,7 @@
       <c r="J18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1071,7 +1066,7 @@
       <c r="J19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1092,7 +1087,7 @@
       <c r="J20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1113,7 +1108,7 @@
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1134,7 +1129,7 @@
       <c r="J22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1153,7 +1148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
@@ -1172,7 +1167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -1193,7 +1188,7 @@
       <c r="J25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
@@ -1214,7 +1209,7 @@
       <c r="J26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
@@ -1235,7 +1230,7 @@
       <c r="J27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -1256,7 +1251,7 @@
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4">
@@ -1277,7 +1272,7 @@
       <c r="J29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -1298,7 +1293,7 @@
       <c r="J30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -1319,7 +1314,7 @@
       <c r="J31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -1340,7 +1335,7 @@
       <c r="J32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4">
@@ -1361,7 +1356,7 @@
       <c r="J33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1382,7 +1377,7 @@
       <c r="J34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
@@ -1403,7 +1398,7 @@
       <c r="J35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4">
@@ -1424,7 +1419,7 @@
       <c r="J36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4">
@@ -1443,7 +1438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
@@ -1464,7 +1459,7 @@
       <c r="J38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4">
@@ -1485,7 +1480,7 @@
       <c r="J39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -1506,7 +1501,7 @@
       <c r="J40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4">
@@ -1527,7 +1522,7 @@
       <c r="J41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4">
@@ -1548,7 +1543,7 @@
       <c r="J42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4">
@@ -1569,7 +1564,7 @@
       <c r="J43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4">
@@ -1590,7 +1585,7 @@
       <c r="J44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -1611,7 +1606,7 @@
       <c r="J45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4">
@@ -1632,7 +1627,7 @@
       <c r="J46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
@@ -1653,7 +1648,7 @@
       <c r="J47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
@@ -1674,7 +1669,7 @@
       <c r="J48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -1695,7 +1690,7 @@
       <c r="J49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -1716,7 +1711,7 @@
       <c r="J50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -1737,7 +1732,7 @@
       <c r="J51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -1758,7 +1753,7 @@
       <c r="J52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
@@ -1779,7 +1774,7 @@
       <c r="J53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4">
@@ -1800,7 +1795,7 @@
       <c r="J54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4">
@@ -1821,7 +1816,7 @@
       <c r="J55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -1842,7 +1837,7 @@
       <c r="J56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4">
@@ -1863,7 +1858,7 @@
       <c r="J57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4">
@@ -1884,7 +1879,7 @@
       <c r="J58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4">
@@ -1905,7 +1900,7 @@
       <c r="J59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4">
@@ -1926,7 +1921,7 @@
       <c r="J60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4">
@@ -1947,7 +1942,7 @@
       <c r="J61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4">
@@ -1968,7 +1963,7 @@
       <c r="J62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4">
@@ -1989,7 +1984,7 @@
       <c r="J63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4">
@@ -2010,7 +2005,7 @@
       <c r="J64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4">
@@ -2029,7 +2024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4">
@@ -2050,7 +2045,7 @@
       <c r="J66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4">
@@ -2071,7 +2066,7 @@
       <c r="J67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4">
@@ -2092,7 +2087,7 @@
       <c r="J68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4">
@@ -2113,7 +2108,7 @@
       <c r="J69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4">
@@ -2134,7 +2129,7 @@
       <c r="J70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4">
@@ -2155,7 +2150,7 @@
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4">
@@ -2176,7 +2171,7 @@
       <c r="J72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4">
@@ -2197,7 +2192,7 @@
       <c r="J73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4">
@@ -2218,7 +2213,7 @@
       <c r="J74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4">
@@ -2239,7 +2234,7 @@
       <c r="J75" s="4"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4">
@@ -2260,7 +2255,7 @@
       <c r="J76" s="4"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4">
@@ -2281,7 +2276,7 @@
       <c r="J77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4">
@@ -2302,7 +2297,7 @@
       <c r="J78" s="4"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4">
@@ -2323,7 +2318,7 @@
       <c r="J79" s="4"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="4">
         <v>3</v>
       </c>
@@ -2339,7 +2334,7 @@
       <c r="J80" s="4"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="4">
         <v>3</v>
       </c>
@@ -2355,7 +2350,7 @@
       <c r="J81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="4">
         <v>3</v>
       </c>
@@ -2371,7 +2366,7 @@
       <c r="J82" s="4"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4">
@@ -2392,7 +2387,7 @@
       <c r="J83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="4">
         <v>3</v>
       </c>
@@ -2408,7 +2403,7 @@
       <c r="J84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="4">
         <v>3</v>
       </c>
@@ -2424,7 +2419,7 @@
       <c r="J85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="4">
         <v>3</v>
       </c>
@@ -2440,7 +2435,7 @@
       <c r="J86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4">
@@ -2461,7 +2456,7 @@
       <c r="J87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="4">
         <v>3</v>
       </c>
@@ -2477,7 +2472,7 @@
       <c r="J88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="4">
         <v>3</v>
       </c>
@@ -2493,7 +2488,7 @@
       <c r="J89" s="4"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="4">
         <v>3</v>
       </c>
@@ -2509,7 +2504,7 @@
       <c r="J90" s="4"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4">
@@ -2530,7 +2525,7 @@
       <c r="J91" s="4"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="4">
         <v>3</v>
       </c>
